--- a/gazdasag/2019/export3.xlsx
+++ b/gazdasag/2019/export3.xlsx
@@ -253,7 +253,7 @@
     <t>CLINI LAB</t>
   </si>
   <si>
-    <t>COATS ROMANIA</t>
+    <t>COATS</t>
   </si>
   <si>
     <t>COLOR METAL</t>
@@ -343,10 +343,10 @@
     <t>DARINA COM</t>
   </si>
   <si>
-    <t>DAW BENTA ROMANIA</t>
-  </si>
-  <si>
-    <t>DDCA ROMANIA</t>
+    <t>DAW BENTA</t>
+  </si>
+  <si>
+    <t>DDCA</t>
   </si>
   <si>
     <t>DEATEX</t>
@@ -382,7 +382,7 @@
     <t>DOMINIC OIL</t>
   </si>
   <si>
-    <t>DOMO WELLNESS ROMANIA</t>
+    <t>DOMO WELLNESS</t>
   </si>
   <si>
     <t>DORTOPFOREST</t>
@@ -403,7 +403,7 @@
     <t>DYNAMIC</t>
   </si>
   <si>
-    <t>E.ON ENERGIE ROMANIA</t>
+    <t>E.ON ENERGIE</t>
   </si>
   <si>
     <t>E.ON GAZ FURNIZARE</t>
@@ -529,7 +529,7 @@
     <t>GEDEON RICHTER FARMACIA</t>
   </si>
   <si>
-    <t>GEDEON RICHTER ROMANIA</t>
+    <t>GEDEON RICHTER</t>
   </si>
   <si>
     <t>GEIGER TRANSILVANIA</t>
@@ -619,7 +619,7 @@
     <t>HELL ENERGY</t>
   </si>
   <si>
-    <t>HIRSCHMANN ROMANIA</t>
+    <t>HIRSCHMANN</t>
   </si>
   <si>
     <t>HOME LAND FACTORY</t>
@@ -706,7 +706,7 @@
     <t>JAMARO</t>
   </si>
   <si>
-    <t>JULIUS MEINL ROMANIA</t>
+    <t>JULIUS MEINL</t>
   </si>
   <si>
     <t>JUSTICE SECURITY SERVICES</t>
@@ -910,7 +910,7 @@
     <t>OREX IMPORT EXPORT</t>
   </si>
   <si>
-    <t>ORTOPROFIL PROD ROMANIA</t>
+    <t>ORTOPROFIL PROD</t>
   </si>
   <si>
     <t>OZR FRUIT</t>
@@ -919,7 +919,7 @@
     <t>P &amp; P MIXT</t>
   </si>
   <si>
-    <t>PACCOR ROMANIA</t>
+    <t>PACCOR</t>
   </si>
   <si>
     <t>PALAS COM</t>
@@ -1027,7 +1027,7 @@
     <t>RDE HURON</t>
   </si>
   <si>
-    <t>READY GARMENT TECHNOLOGY ROMANIA</t>
+    <t>READY GARMENT TECHNOLOGY</t>
   </si>
   <si>
     <t>REEA</t>
@@ -1285,7 +1285,7 @@
     <t>VIKING</t>
   </si>
   <si>
-    <t>WABERER S ROMANIA</t>
+    <t>WABERER S</t>
   </si>
   <si>
     <t>WALOR RO</t>
